--- a/500all/speech_level/speeches_CHRG-114hhrg97919.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97919.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman McCaul. The Committee on Homeland Security will come to order.    Committee is meeting today to provide Members with an opportunity to hear from the newly-confirmed Transportation Security Administrator Peter Neffenger on his plans for leading the TSA. We expect to explore a range of issues related to the operations of the TSA.    I now recognize myself for an opening statement.    Two weeks ago, a terrorist attack in America's heartland, inspired by a hateful ideology, killed 5 American soldiers on U.S. soil, just a day after we marked up the Countering Violent Extremism bill out of this committee.    Fourteen years after 9/11 not only are we still under threat from Islamist terrorists, but they have gone on the defensive globally and expanded their footprint. Radicalization is on the rise and the war is being brought to our doorsteps at a terrifying speed.    We have long known that our aviation sector is a crown jewel of terrorist targets. So as we stare down these real and growing threats, Congress and the American people need confidence in our defenses. In the past few months, TSA has given us concern rather than confidence. Terrorists have to be right only once, and we have to be right 100 percent of the time.    As millions of travelers from all over the world pass through our Nation's airports, the American people must know and trust that the procedures and policies put in place make it safer.    In June, we learned through leaked reports from the Department of Homeland Security's Office of Inspector General that TSA's passenger screening was wrong 96 percent of the time, and that 73 aviation workers have potential ties to terrorism. These findings shatter public confidence. A reported 96 percent failure rate to detect explosives is completely unacceptable.    Administrator Neffenger has an opportunity, I believe, to turn this ship around. As an admiral, I think he has that capability as well. In our discussions that we have had over the past few days, he has displayed candor and an open mind in his approach to this critical position.    In my opinion, TSA needs to do three things in order to move forward to a new chapter. No. 1, restore public confidence. No. 2, enhance risk-based security. No. 3, better leverage the private sector.    We have seen a large expansion of risk-based security initiatives since 2011, however, we still need to do more. TSA's PreCheck program has been in place for 4 years, however, currently only 4 percent of travelers are members of this program. TSA needs to increase its population so that it can focus its efforts on more thoroughly screening those passengers who are unknown and pose a higher risk.    I would like to explore how TSA can better leverage the private sector. The private sector plays a critical role in securing our Nation's aviation system. TSA does not and cannot fulfill its mission alone. The private sector is a necessary partner that TSA needs to continue to rely on in order to successfully fulfill its mission.    TSA and the Department need to look to the future and give the private sector a road map and a vision of what screening will look like 5, 10, and even 15 years from now. The admiral and I have had some very good discussions on that point.    This can help companies developing technologies meet these needs. We cannot expect private companies to invest tens of millions of dollars if we cannot provide them with any certainty or vision on a return on their investment.    Additionally, TSA needs to make necessary reforms in order to enhance the Screening Partnership Program. These partnerships allow airports to hire private screeners instead of Government employees. This program has been in place since 2004 and, yet, TSA is still unable to do an accurate cost comparison that takes into account the full cost of a Federal employee compared to a private-sector employee doing the same job. This gap allows TSA to argue that private screeners do not save the taxpayer money although this is not a fair and accurate accounting assessment.    This committee is dedicated to reforming TSA. We proved our commitment to this effort by passing four important pieces of legislation on the House floor just this Monday that will keep Americans safe.    This legislation came out of this committee as a result of the recent TSA failures. Specifically, these bills will help strengthen and secure the PreCheck program, improve the vetting process for aviation employees, help keep our airport screening equipment better maintained, and implement better accountability policies at local airports for contractors.    But the bottom line is this: The threat is evolving. But Americans are concerned that TSA is not keeping up with that threat.    Administrator Neffenger, you have a tough job ahead of you to lead this agency but we have confidence in you, and we look forward to working with you in these joint efforts to reform TSA, and together today we are eager to hear from you about your plans for the future and your vision.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much, Mr. Chairman, for holding this hearing. I would also like to congratulate Administrator Neffenger on his appointment, and I look forward to working with him to advance the mission of TSA.    Another thing is, you say, ``Welcome to the fish bowl.''    [Laughter.]    TSA was established by Congress in the wake of the September 11 attack. It has responsibility for protecting the Nation's surface and aviation transportation systems and ensuring the free movement of people and goods.    Over the years in protecting aviation systems, TSA has used a number of methods to screen passengers. Some of the technological changes TSA has made, however, have cost taxpayers millions of dollars while failing to adequately address the threat to aviation security.    Unfortunately, TSA is still having problems with its technology today. For example, last month, it was reported that auditors posing as passengers were able to smuggle mock explosives and banned weapons through checkpoints at various airports across the country.    Earlier this spring, the inspector general released a report claiming that TSA does not properly manage the maintenance of its airport screening equipment. According to the I.G., TSA has not issued adequate policies to airports for carrying out maintenance responsibility.    Administrator Neffenger, I want to challenge you to address these issues with the technologies used in the airport environment. As you approach this issue, consider both the current threat picture and the emerging threats. Keep in mind that there are small and minority businesses in this country with exceptional technologies that could be beneficial to TSA and improve efficiencies at the airport.    I highlight that because we have gotten accustomed to using three or four vendors and every time we have come before this committee, somebody would say, well, they are the only someone with capacity to do what we need. My question is: Well, how hard have we looked and how cooperative have we been with other people who are in this arena? So I look forward to working with you on that.    Former Administrator Pistole implemented a risk-based approach to passenger screening. However, both the Government Accountability Office and the Office of Inspector General have identified shortcomings with this approach, especially when it comes to granting passengers expedited screening through managed inclusion.    Significant shortcomings that I have observed with managed inclusion include problems with the model used to identify passengers for this managed inclusion program and the usefulness of having behavior that takes an officer's implement the managed inclusion program.    The reason I say that, too, Mr. Director, is we have been asking for whatever science that is available relative to behavior detection officers and how that falls into this layered system of protection and, unfortunately, we have yet to get that report back from a scientific standpoint.    This past Monday, legislation introduced by Subcommittee Chairman Katko, Ranking Member Rice, and me directs TSA to limit expedited airport screening to participants of the PreCheck program and other known low-risk passengers. Our bill passed the House. Last week, three new measures were approved by the Transportation Security Subcommittee.    As we consider the three deals, we know that there are some issues that remain for the full committee's consideration. For instance, significant concerns have been raised by a diverse group of labor stakeholders for the measure aimed to address alarming reports of multiple security breaches caused by employees exploiting security gaps and abusing the credentialing privileges. As we close these gaps, we must ensure that the men and women whose job is to protect the flying public are not unduly impacted.    As TSA legislation works its way through the legislative process, we would welcome constructive engagement from TSA. Administrator Neffenger, again, not only do I look forward to hearing from you on how you plan to address these issues, but also I want to hear from you on how you plan to address the most valuable asset within TSA, which is its workforce.    TSA is plagued with very low morale and an extremely high turnover rate. Employees cite low pay and barriers to advancement as some of their main issues. Additionally, the Federal Air Marshal Service has not had a class in nearly 4 years. Again, I want to know your perspective on this and what steps you plan to take to improve employee morale and if you plan on employing more Federal air marshals.    TSA plays a vital part in protecting America. We can work together to help solve its problems. I look forward to this committee working with you as the new administrator in a bipartisan fashion to help solve TSA's problems and to improve.    With that, Mr. Chair, I yield back.</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Neffenger</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Neffenger. Thank you. I have written comments for the record and just a brief opening statement.    Good morning, Chairman McCaul, Ranking Member Thompson, and distinguished Members of the committee. Thanks for the opportunity to testify in my new role as administrator of TSA. I am pleased to appear before you this morning to share my vision and my thoughts about the future of TSA.    Let me begin by saying that TSA is fundamentally a counter-terrorism organization. Our job is to deter, detect, and disrupt those who would harm our system of transportation across the country, especially the aviation sector.    We protect legitimate trade and travel. We have a no-fail mission, one for which the consequences of a successful attack overwhelm the risk equation and for which we must ensure we deliver mission success. This critically important core mission is my highest priority.    As I appear before this committee this morning, I am in the middle of my now fourth week on the job. Although brief, I have been thoroughly impressed with the professionals who occupy our ranks and I want to thank Mr. Thompson for noting those.    Officers and employees who have sworn an oath to serve their Nation in a mission--a critically important mission--that encounters more than 2 million travelers a day in the aviation sector alone. I have also had some time to become more familiar with the challenges facing the agency and develop a set of priorities.    My highest priority is to ensure solutions to the recent covert testing failures. Overall, there are several critical elements that are essential to improving screening operations. First, we must ensure the appropriate measures of effectiveness are in place to drive an institutional focus on our primary mission. What we measure is what our employees will pay attention to. So it is imperative that we get our metrics right.    Second, we must employ a culture of operational evolution, one that constantly reassesses our assumptions, our plans, and our processes and must be able to rapidly field new concepts of operation and new technologies.    Finally, delivering an effective system in earning the confidence of the traveling public will only come through competence, discipline, performance, and professionalism. I have conveyed these standards to our workforce and I commit to you that I relentlessly pursue these objectives.    I will take on this challenge with the leadership perspective that has been central to my approach my entire career. A well-defined and clear statement of mission, clear and unequivocal standards of performance, training and resourcing that enable the workforce to achieve success in an unwavering pursuit of accountability.    I will set expectations of strong values for the workforce and I will lead with TSA's core values of integrity, innovation, and team spirit at my core.    Since its creation after the attacks of September 11, 2001, TSA has played an invaluable role in protecting the traveling public. However, nearly 14 years later, we continue to face a range of threats from terrorists who are inspired by messages of hatred and violence. A number of terrorist groups remain intent on striking the United States and the West, and we know that some of them are specifically focused on aviation.    More troubling, today the threat is more decentralized, it is more diffuse and more complex than ever before. These persistent threats are TSA's most pressing challenge. Our enemies will continually adapt and so must we. We must leverage intelligence, technology, the experience of our front-line operators and our partners in Federal, State, and local governments in the private sector, to employ effective measures. We must pay particular attention to the insider threat.    A second challenge facing TSA is retention, training, and accountability. Front-line managers and screeners are critical to our success. Agency culture, morale, and effectiveness are a direct result of career-long development recognition and accountability.    The traveling public expects to be treated with dignity and respect. I will pay close attention to training and workforce development to include how to leverage and expand the TSA academy to develop leaders, improve individual performance, and instill a greater sense of pride in our agency, its mission, and its values.    A third organizational challenge for TSA is to ensure it is continually fielding the tools and equipment the workforce needs today, while envisioning how to modernize our system and transform the traveling experience in the future. I see a future where advanced capabilities can transform the experience, while preserving risk-based security as a central feature.    I think it is possible that an individual's biometric identity could effectively become the boarding pass of the future, linked to intelligence systems and requiring passage through an integrated capability designed to detect metallic- and non-metallic-based threats. This future can be realized with a suitable strategic approach.    As such, I commit myself to ensuring that TSA remains a high-performing, highly-capable counterterrorism organization, guided by a risk-based strategy, employing a multi-layered, intelligence-driven operation, and that we recruit and retain a highly-trained workforce, one that has the opportunity for career growth and development, while placing a premium on professional values and accountability; that we pursue advanced capabilities with innovation and competition central to our way of thinking, and that TSA continues to strengthen its integration in the intelligence community, in the private sector with our stakeholders, and among DHS and other Federal, State, and local partners.    I will follow this strategy, develop and lead the workforce, adapt and invest appropriately, and remain focused on these critical success factors.    Then finally, throughout my years of service, I know and I remain aware of the need to balance desires for greater security, with protection of the liberties and the rights that we cherish. Safeguarding civil liberties and privacy interests is a top priority, and I look forward to partnering with this committee to enhance the safety of the traveling public, and to achieve this balance.    I applaud the work that the men and women of TSA perform each and every day. It is a great honor to join them, and to have the privilege of serving with them in the defense of our country. Chairman McCaul, Ranking Member Thompson, and Members of the committee, I thank you for the opportunity to be here today, and I look forward to your questions.</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>400341</t>
   </si>
   <si>
-    <t>Mike Rogers</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    Admiral, welcome. You have got a big challenge on your hands. I have been on this committee since it was established, I have seen the Department grow and develop since it was established, and I can just assure you you have some inertia to deal with. You have some employees that you are gonna have to put the fear of God in their heart or nothing is going to change.    I have seen some good administrators precede you that ran into administrative pressures to back off; you are gonna run into that. But I want you to understand that you have got some folks that really believe they don't have to change, you will be gone before they are, and you need to make them understand that is not the case.    If they don't change what they are doing--now, it can't be slight changes, it is gonna be dramatic changes, or we are gonna have the results we have been getting for the last several years.    This most recent I.G. report that upset so many people was identical to the previous three I.G. reports over roughly a 5-year period of time. That is unacceptable, and that is people who are unwilling to do anything different and don't believe there are consequences for not doing anything different.    So, I hope that you will instill that understanding in them, that if they don't change, they are gone, and if you can't do that, you ought to be gone, and I think you would agree with that.    One concern I have got, I heard the Chairman make reference to the PreCheck program. Very good program as far as its goals. The problem we are running into, and I think when you move around airports you will see this, is that frequent travelers who are the people we want into this program, have gotten in to it. The FSDs at the airports have not adjusted the lane activity to accommodate that traffic, so now you spend more time in the PreCheck line than you do if you go into the priority lane--sky priority, whatever they call it, and just go through the typical take-your-shoes-off type.    That is silly, people are gonna stop going into the PreCheck program if they don't it find it enhances their ability to get through in a faster fashion. So, I hope you will address that issue with these airport folks, because we want the PreCheck program to continue and to be the method of getting safe people that we know through in an efficient manner so we can put more attention on those infrequent travelers who are more apt to have a problem.    I did hear you make reference to the fact that you understand the explosive detection canines are a valuable asset. They are the best asset you have, and I am not gonna talk in a open setting about the efficacy of the equipment or the personnel, but I would like to, soon as we are back from our August district work period, to meet with you in the SCIF and go over in detail what the shortcomings have been.    I used to chair the Transportation Security Subcommittee, I am very familiar with this subject matter and what I think needs to be done to remedy that. So, I look forward to that and I hope I can get your commitment to meet with me in September for that purpose.</t>
   </si>
   <si>
@@ -151,9 +139,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. First, let me offer my appreciation to my Chairman and Ranking Member for your presence here today, Vice Admiral, and let me thank you for your service. It is interesting that I followed my good friend Mr. Rogers, because as he chaired, I think we have switched back and forth. I had the privilege of chairing the Transportation Security Committee, and service--and I think I have served as his Ranking when he was Chair, and we are, if you will, young but we have been here for a little bit.    So we are really grateful for you service, and again, that of my Chair and Ranking Member of the full committee.    Let me, as I thank you for service, let me take a different twist and say to you that I am very proud of the men and women who serve every day on the front lines in many ways, but in particular today of transportation security officers.    Over the years, I have argued for increased professional development training, to recognize that morale and commitment have a lot to do with pay, respect, and professional development training, and I am gonna be posing questions within the short period of time that I have.    Let me also acknowledge to my colleagues, again, my sympathy to the Hernandez family for Mr. Gerardo Hernandez killed in the line of duty as a Transportation Security Officer in Los Angeles. Some of us went out to Los Angeles to acknowledge that as well as meeting with his family.    We should never dismiss the fact, in all of the issues that you will have to deal with, is that since 9/11, there are probably millions of TSA screenings, TSO screenings, and any number of stops that the TSO Officers made--and I hope you acknowledge that, because beginning to correct starts with acknowledging service, and I think it is very important to do so.    Let me also say, however, that in addition to that, we have allegations of mismanagement, wasteful procedures, retaliation against whistle blowers, low morale, security gaps. We have a number of things that you will have to address, but I never want to leave this table without saying thank you to the TSO Officers.    I make it my business, as I travel in airports across America, to say hello, to ask a question, or to watch their procedures, and again if I might, professional development training is crucial.    So let me just ask you a series of questions that I hope I will be able to get in. One, I think you can do better if we all get rid of sequestration. I want to get that on the record because you need the money placed in the right places.    I agree with the use of privatization on the basis of--let me correct that for being misquoted. I believe there is a place for the private sector in particular dealing with technology. I might have misheard you when you said something about a third TSA and it was the private sector. So I hope that is not right.    I am against privatizing airports and privatizing TSO Officers. I think we need a professional, trained group. I want your comments as it relates to professional, trained groups.    But on the BDO, there is $700 million being spent on that. I would be interested in you being able to craft an effective utilization of these individuals or this project with a more effective use of the resources that you are given on that, also     I want to take note of the fact that a young man in Dallas was so in love with his girlfriend just recently ran past security. I would like your comment on that. We shut down the Newark Airport a couple of years ago with another enamored young man who went through security.    Then I would like to have your comment that TSOs are the most visible face of security in America. How do we make people run toward, meaning the good people, and say I am so happy, as most people do, about these issues?    If I might yield to you for these answers. Again, I hope I can join Mr. Rogers and others for that SCIF briefing. I would be happy to do so.    If you could just comment on those, I would greatly appreciate it.</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.    I want to first of all echo the sentiments of Mr. Thompson that you are indeed a breath of fresh air. We have spent a lot of time together in the last few days and since you have come on-board and I think you are exactly what TSA needs at this time.    I also echo the sentiments of Mr. Rogers that there are a lot of problems at TSA. But I also--I sound like a politician--but I also echo the sentiments of Ms. Jackson Lee and want to say thank you for the good work that the vast majority of your employees are doing day-in and day-out. You are often trying to find a needle in the haystack and I appreciate the efforts of everyone.    One of the areas I want to focus on a little bit today is the issue of access control. We have kind of touched on it, but I think it is a gaping hole in security at the airports Nation-wide.    Within the last year or 2, you have had a major drug trafficking ring operating out of the Oakland Airport. You had another one operating out of Dallas/Fort Worth Airport that has truly troubling implications based on the briefings I have received so far about it that aren't necessarily public.    Another one, of course, that is very troubling was an individual who smuggled as much as 160 guns, loaded, including assault rifles, on airlines because a worker at the Atlanta Airport carried the guns in bags through the access points and brought them up to New York City. At any point, instead of selling them, if he wanted to do something bad on an airplane we would have had an unbelievable tragedy on our hands.    I think these incidents point out that there really is a major problem with access controls at airports. I recently had a bill passed out of our committee, our subcommittee addressing the issue.    But I would like to hear your thoughts on the access control issue. Should there be minimum standards at all access points of these airports?    I will preface the question further by saying that it is clear from the Dallas case that the VIPR teams that are used to do the random screening at various points were being monitored by the bad guys at Dallas/Fort Worth and they were just simply avoiding them with a quick phone call to their colleagues.    So that is not going to work going forward. So with that overview and those set of prefaces, I would like to hear your thoughts on access controls.</t>
   </si>
   <si>
@@ -223,9 +205,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Admiral, welcome. I in no way speak for all Members of this committee, but for myself, and I suspect that the committee Members would agree with this, we wish you success. We want to see you succeed and we want to do everything we can to help you. I want to touch very quickly on just two things.    First of all, understand that I represent the coast of Georgia, the entire coast of Georgia, and on the coast, we have two major ports. We have the Savannah port, which is the No. 2 container port on the Eastern Seaboard. We also have the Brunswick Port, which is the No. 2 roll-on roll-off port in the Nation.    Both of those ports are vitally important, and in both of those ports, we use the TWIC cards, the Transportation Workers' Identification Credentials, and I want to talk just briefly about that, very quickly. It--I would like to read to you some examples of situations that have occurred with the TWIC cards that I am very concerned about.    First of all, an individual used a TWIC card to gain access to the Norfolk naval station and killed a naval officer. An individual drove through a gate at a Coast Guard station and threatened to detonate a bomb, demonstrating that a terrorist could do the same, and the ineffectiveness of the TWIC program.    TWIC holders have committed crimes in secure port areas, demonstrating TWICs are provided to criminals and can be used to commit crimes on ports. The proposed rule making for TWIC describes multiple possible terrorist scenarios where the TWIC cards will not be effective.    DHS has failed twice to complete successful pilot programs with the TWIC cards. DHS has not completed a reliable analysis of the TWIC program's internal controls or effectiveness, and finally, GAO has demonstrated the TWIC program's weakness through its analysis invert--in covert testing multiple times.    My question is: What about the TWIC cards? Can it be fixed, and if it can, how are you gonna fix it?</t>
   </si>
   <si>
@@ -253,9 +232,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you, Mr. Chairman, and thank you again, Admiral, for being here with us today. I have no doubt that under your leadership and with your experience, and what it sounds like great support from this committee, you will be successful at addressing the major concerns that we have seen with the TSA, and their responsibility of securing our Nation and our ports.    Today I want to focus on my home airport, Ontario International Airport. As you may know, the airport is controlled by LAWA, the Los Angeles airport. They have oversight and management control of this airport.    Through my experience not only as a passenger but going on a security visit tour of the airport, I want to highlight for you today, the concerns that I have.    Under the agreement, or the arrangement that LAWA has with Ontario, they are--LAX is 56 miles away, and they are the ones controlling our airport. Ontario Airport's manager is only at the airport on a part-time basis. It is a shared position with the Van Nuys airport, which is another, you know, hour away, depending on traffic.    LAWA--we used to have a full-time assistant manager, but that position was deleted a year ago. The authority--the management authority could be very well undermined when that manager is not at Ontario Airport, and it is unclear who is in charge of the airport when that person is physically not present.    When it comes to technology, the Ontario International Airport seems to be lacking. The card reader technology that regulates access to the secure areas is inaccurate, meaning that employees have no limited accesses to where they can enter secure areas. Additionally, many dispatch center security monitors at Ontario Airport are non-functioning.    Ontario Airport gets old fire department equipment from LAX, so whatever is deemed inoperable or unwanted at LAX is shipped to Ontario Airport, and that is the equipment that our folks have to work with.    When it comes to security, the airport's perimeter, security appears to be lacking and needs to be reviewed.    For example, as a result of a grade separation on the north side of the airport, we have had residents able--that were able to walk and drive all the way through to the runway without being stopped.    I also have concerns about the training of Ontario Airport employees. It appears that the LAX employees do some training at the Ontario facility, but it is not clear if our employees at Ontario Airport are participating in that training. As you can see, I have many concerns about the security of Ontario International Airport.    This is a major problem, because the airport serves millions of residents in California, in the Inland Empire. It is a hub. It is an engine for our community in the Inland Empire.    My goal here, as I explained to you earlier, is not to pit or get into the politics of who owns the airport. My goal here today is to ensure that you fully understand the issues and concerns that our community has as it relates to security and who is managing and who is responsible for the Ontario Airport.    At this time, I want to invite you to participate in a meeting with me to discuss these concerns and to come up with solutions to these problems. Would you be willing to discuss these issues and visit with me at the airport and also will you be willing to work with me and other relevant Federal officials to begin to address the tremendous problems that I have seen--personally witnessed at this airport?</t>
   </si>
   <si>
@@ -271,9 +247,6 @@
     <t>412653</t>
   </si>
   <si>
-    <t>John Ratcliffe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Admiral, first of all, I would like to thank you for your 34 years of dedicated service in the Coast Guard, and I certainly wish you the best of luck in your new role as the TSA administrator. You have got a very difficult job ahead of you.    As a number of our recent hearings in this committee have highlighted, there are some immediate and frankly glaring problems that you will need to address in this new role.    We need to only rewind the clock a few days to underscore some of the troubling gaps that exist right now at TSA. I am sure that you are obviously aware that 3 days ago, on Sunday, at the Dallas-Fort Worth Airport a 26-year-old man was able to bypass TSA Security without a boarding pass or any identification at all and get on a plane to Guatemala. According to the police report, it was only after the police were called and the individual left the plane that TSA's security became aware of the incident.    So I want to give you an opportunity to respond to what happened at DFW and give us any information that you can about your investigation into how a breach of that magnitude was possible.</t>
   </si>
   <si>
@@ -301,9 +274,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman.    Congratulations, Admiral. Thank you for your service with the Coast Guard and thank you for your comments here today. Certainly stressing accountability and doing the kind of work you did in review. It is a difficult assignment but I think you are right on target.    I just want to concentrate on one area which has been something I have brought up for the last several years that represents, I think, a tremendous security issue regarding our airports and that is the perimeter security issue.    Dating back from the time I was a district attorney in Massachusetts, there was a case of a 15-year-old--young 15-year-old boy stowing away on a commercial airline from Charlotte Douglas and tragically losing his life over Milton, Massachusetts, when the landing gear went down. The fact that he penetrated that security aroused the concern.    But we have followed that issue forward and just to put it in perspective, from 2001 to 2011, there were 1,388 perimeter security breaches in our 450 domestic airports. What is troubling, among other things, is that the joint vulnerability assessments as the risks seem to be getting greater, are going down.    Just to give you an idea, from 2004 to 2008, there were 60 of those assessments for our 450 airports. From 2011 to 2013, that was reduced to 30 assessments annually. In 2014, only 12 of those assessments were covered.    That is--that means 97 percent of our Nation's airports weren't reviewed for security risk despite the fact that we have had time and time again whether it is in Chicago or Philadelphia or Los Angeles or, again, in Charlotte Douglas, in New York, we have had these kind of breaches that have occurred. Scores of them have been people that have reached access to the runway and the airports and their refueling areas as well. If a 15- or 16-year-old can penetrate our security--in one instance not even go detected after they reviewed it--then we are vulnerable.    If they can do that and stow away themselves, someone with a different motivation could stow away an explosive on those airlines and not even risk their lives doing it.    I hesitate to keep saying this publicly because I don't want to give people ideas but nothing has been done in terms of progress.    That is why when I wrote you congratulating you on your assignment--I was very pleased to get a response--a timely response back just this month, I appreciate that--where you are identifying this as a priority.    I just want to ask you where you are going with that because it is important and I also--the Chairman and I, when we were working together in Homeland, we had a field hearing and one thing that was so obvious to us was the fact that there is a huge jurisdictional issue at these airports. If things go wrong, they end up pointing the fingers at each other.    They are run by municipal airport organizations, they are run by authorities, and this jurisdiction battle unresolved, even when the Federal Government comes in and said with these assessments, you have things you have to clean up. You have dangers that are here. They don't do it and no one seems to make them do it.    So when you are doing that review, the other thing I think we have to clear up is this jurisdictional issue and if people are going to be safe, they are going from one airport to another. They are in the network. So you are only as good as your weakest link. We are not even assessing more than 3 percent of those airports for safety.    So I want to just give you a minute that is left just to try and expand upon what you wrote me about going forward and dealing with this issue and to try and deal also with this jurisdictional problem that we have.</t>
   </si>
   <si>
@@ -317,9 +287,6 @@
   </si>
   <si>
     <t>412644</t>
-  </si>
-  <si>
-    <t>Bonnie Watson Coleman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you very much, Mr. Chairman.    Congratulations to you, Admiral. You are very encouraging, and it seems that you have taken this assignment on with all high expectations, and with respect to those that get the job done, on behalf of all of us. So thank you.    I just have a couple of little questions. No. 1 has to do with the Federal Air Marshal Service. My understanding is that there hasn't been a class, a recruitment, for nearly 4 years. So I am wondering, do you have any plan to address the attrition that this might represent? Are they still as necessary? Or is there something that is replacing the need for them?</t>
@@ -736,11 +703,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -762,11 +727,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -786,13 +749,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -814,11 +775,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -840,11 +799,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -864,13 +821,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -892,11 +847,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -916,13 +869,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>21</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -944,11 +895,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -968,13 +917,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -996,11 +943,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1020,13 +965,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1046,13 +989,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1072,13 +1013,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1098,13 +1037,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1124,13 +1061,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1150,13 +1085,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1176,13 +1109,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1202,13 +1133,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1228,13 +1157,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1256,11 +1183,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1280,13 +1205,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1306,13 +1229,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1332,13 +1253,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1360,11 +1279,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1384,13 +1301,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>44</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1410,13 +1325,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1436,13 +1349,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>44</v>
-      </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1464,11 +1375,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1488,13 +1397,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
-      </c>
-      <c r="G31" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
         <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1516,11 +1423,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1540,13 +1445,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
-      </c>
-      <c r="G33" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1568,11 +1471,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1592,13 +1493,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1620,11 +1519,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1644,13 +1541,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1670,13 +1565,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1696,13 +1589,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1722,13 +1613,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1748,13 +1637,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
         <v>56</v>
-      </c>
-      <c r="G41" t="s">
-        <v>57</v>
-      </c>
-      <c r="H41" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1776,11 +1663,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1800,13 +1685,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
-      </c>
-      <c r="G43" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1828,11 +1711,9 @@
       <c r="F44" t="s">
         <v>11</v>
       </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1852,13 +1733,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1880,11 +1759,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1904,13 +1781,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>68</v>
-      </c>
-      <c r="G47" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1930,13 +1805,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1956,13 +1829,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
-      </c>
-      <c r="G49" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1982,13 +1853,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2008,13 +1877,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>68</v>
-      </c>
-      <c r="G51" t="s">
-        <v>69</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2034,13 +1901,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2060,13 +1925,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>68</v>
-      </c>
-      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>69</v>
-      </c>
-      <c r="H53" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2088,11 +1951,9 @@
       <c r="F54" t="s">
         <v>11</v>
       </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2112,13 +1973,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2138,13 +1997,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2164,13 +2021,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" t="s">
-        <v>79</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2192,11 +2047,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2216,13 +2069,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
-      </c>
-      <c r="G59" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2242,13 +2093,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2268,13 +2117,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
-      </c>
-      <c r="G61" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2294,13 +2141,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2320,13 +2165,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
-      </c>
-      <c r="G63" t="s">
-        <v>85</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2348,11 +2191,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2372,13 +2213,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>20</v>
-      </c>
-      <c r="G65" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2400,11 +2239,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2424,13 +2261,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2450,13 +2285,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2476,13 +2309,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2504,11 +2335,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2528,13 +2357,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
-      </c>
-      <c r="G71" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2554,13 +2381,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2580,13 +2405,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
-      </c>
-      <c r="G73" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2606,13 +2429,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2632,13 +2453,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
-      </c>
-      <c r="G75" t="s">
-        <v>101</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2660,11 +2479,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97919.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97919.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman McCaul. The Committee on Homeland Security will come to order.    Committee is meeting today to provide Members with an opportunity to hear from the newly-confirmed Transportation Security Administrator Peter Neffenger on his plans for leading the TSA. We expect to explore a range of issues related to the operations of the TSA.    I now recognize myself for an opening statement.    Two weeks ago, a terrorist attack in America's heartland, inspired by a hateful ideology, killed 5 American soldiers on U.S. soil, just a day after we marked up the Countering Violent Extremism bill out of this committee.    Fourteen years after 9/11 not only are we still under threat from Islamist terrorists, but they have gone on the defensive globally and expanded their footprint. Radicalization is on the rise and the war is being brought to our doorsteps at a terrifying speed.    We have long known that our aviation sector is a crown jewel of terrorist targets. So as we stare down these real and growing threats, Congress and the American people need confidence in our defenses. In the past few months, TSA has given us concern rather than confidence. Terrorists have to be right only once, and we have to be right 100 percent of the time.    As millions of travelers from all over the world pass through our Nation's airports, the American people must know and trust that the procedures and policies put in place make it safer.    In June, we learned through leaked reports from the Department of Homeland Security's Office of Inspector General that TSA's passenger screening was wrong 96 percent of the time, and that 73 aviation workers have potential ties to terrorism. These findings shatter public confidence. A reported 96 percent failure rate to detect explosives is completely unacceptable.    Administrator Neffenger has an opportunity, I believe, to turn this ship around. As an admiral, I think he has that capability as well. In our discussions that we have had over the past few days, he has displayed candor and an open mind in his approach to this critical position.    In my opinion, TSA needs to do three things in order to move forward to a new chapter. No. 1, restore public confidence. No. 2, enhance risk-based security. No. 3, better leverage the private sector.    We have seen a large expansion of risk-based security initiatives since 2011, however, we still need to do more. TSA's PreCheck program has been in place for 4 years, however, currently only 4 percent of travelers are members of this program. TSA needs to increase its population so that it can focus its efforts on more thoroughly screening those passengers who are unknown and pose a higher risk.    I would like to explore how TSA can better leverage the private sector. The private sector plays a critical role in securing our Nation's aviation system. TSA does not and cannot fulfill its mission alone. The private sector is a necessary partner that TSA needs to continue to rely on in order to successfully fulfill its mission.    TSA and the Department need to look to the future and give the private sector a road map and a vision of what screening will look like 5, 10, and even 15 years from now. The admiral and I have had some very good discussions on that point.    This can help companies developing technologies meet these needs. We cannot expect private companies to invest tens of millions of dollars if we cannot provide them with any certainty or vision on a return on their investment.    Additionally, TSA needs to make necessary reforms in order to enhance the Screening Partnership Program. These partnerships allow airports to hire private screeners instead of Government employees. This program has been in place since 2004 and, yet, TSA is still unable to do an accurate cost comparison that takes into account the full cost of a Federal employee compared to a private-sector employee doing the same job. This gap allows TSA to argue that private screeners do not save the taxpayer money although this is not a fair and accurate accounting assessment.    This committee is dedicated to reforming TSA. We proved our commitment to this effort by passing four important pieces of legislation on the House floor just this Monday that will keep Americans safe.    This legislation came out of this committee as a result of the recent TSA failures. Specifically, these bills will help strengthen and secure the PreCheck program, improve the vetting process for aviation employees, help keep our airport screening equipment better maintained, and implement better accountability policies at local airports for contractors.    But the bottom line is this: The threat is evolving. But Americans are concerned that TSA is not keeping up with that threat.    Administrator Neffenger, you have a tough job ahead of you to lead this agency but we have confidence in you, and we look forward to working with you in these joint efforts to reform TSA, and together today we are eager to hear from you about your plans for the future and your vision.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you very much, Mr. Chairman, for holding this hearing. I would also like to congratulate Administrator Neffenger on his appointment, and I look forward to working with him to advance the mission of TSA.    Another thing is, you say, ``Welcome to the fish bowl.''    [Laughter.]    TSA was established by Congress in the wake of the September 11 attack. It has responsibility for protecting the Nation's surface and aviation transportation systems and ensuring the free movement of people and goods.    Over the years in protecting aviation systems, TSA has used a number of methods to screen passengers. Some of the technological changes TSA has made, however, have cost taxpayers millions of dollars while failing to adequately address the threat to aviation security.    Unfortunately, TSA is still having problems with its technology today. For example, last month, it was reported that auditors posing as passengers were able to smuggle mock explosives and banned weapons through checkpoints at various airports across the country.    Earlier this spring, the inspector general released a report claiming that TSA does not properly manage the maintenance of its airport screening equipment. According to the I.G., TSA has not issued adequate policies to airports for carrying out maintenance responsibility.    Administrator Neffenger, I want to challenge you to address these issues with the technologies used in the airport environment. As you approach this issue, consider both the current threat picture and the emerging threats. Keep in mind that there are small and minority businesses in this country with exceptional technologies that could be beneficial to TSA and improve efficiencies at the airport.    I highlight that because we have gotten accustomed to using three or four vendors and every time we have come before this committee, somebody would say, well, they are the only someone with capacity to do what we need. My question is: Well, how hard have we looked and how cooperative have we been with other people who are in this arena? So I look forward to working with you on that.    Former Administrator Pistole implemented a risk-based approach to passenger screening. However, both the Government Accountability Office and the Office of Inspector General have identified shortcomings with this approach, especially when it comes to granting passengers expedited screening through managed inclusion.    Significant shortcomings that I have observed with managed inclusion include problems with the model used to identify passengers for this managed inclusion program and the usefulness of having behavior that takes an officer's implement the managed inclusion program.    The reason I say that, too, Mr. Director, is we have been asking for whatever science that is available relative to behavior detection officers and how that falls into this layered system of protection and, unfortunately, we have yet to get that report back from a scientific standpoint.    This past Monday, legislation introduced by Subcommittee Chairman Katko, Ranking Member Rice, and me directs TSA to limit expedited airport screening to participants of the PreCheck program and other known low-risk passengers. Our bill passed the House. Last week, three new measures were approved by the Transportation Security Subcommittee.    As we consider the three deals, we know that there are some issues that remain for the full committee's consideration. For instance, significant concerns have been raised by a diverse group of labor stakeholders for the measure aimed to address alarming reports of multiple security breaches caused by employees exploiting security gaps and abusing the credentialing privileges. As we close these gaps, we must ensure that the men and women whose job is to protect the flying public are not unduly impacted.    As TSA legislation works its way through the legislative process, we would welcome constructive engagement from TSA. Administrator Neffenger, again, not only do I look forward to hearing from you on how you plan to address these issues, but also I want to hear from you on how you plan to address the most valuable asset within TSA, which is its workforce.    TSA is plagued with very low morale and an extremely high turnover rate. Employees cite low pay and barriers to advancement as some of their main issues. Additionally, the Federal Air Marshal Service has not had a class in nearly 4 years. Again, I want to know your perspective on this and what steps you plan to take to improve employee morale and if you plan on employing more Federal air marshals.    TSA plays a vital part in protecting America. We can work together to help solve its problems. I look forward to this committee working with you as the new administrator in a bipartisan fashion to help solve TSA's problems and to improve.    With that, Mr. Chair, I yield back.</t>
   </si>
   <si>
@@ -73,6 +88,9 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Neffenger</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Neffenger. Thank you. I have written comments for the record and just a brief opening statement.    Good morning, Chairman McCaul, Ranking Member Thompson, and distinguished Members of the committee. Thanks for the opportunity to testify in my new role as administrator of TSA. I am pleased to appear before you this morning to share my vision and my thoughts about the future of TSA.    Let me begin by saying that TSA is fundamentally a counter-terrorism organization. Our job is to deter, detect, and disrupt those who would harm our system of transportation across the country, especially the aviation sector.    We protect legitimate trade and travel. We have a no-fail mission, one for which the consequences of a successful attack overwhelm the risk equation and for which we must ensure we deliver mission success. This critically important core mission is my highest priority.    As I appear before this committee this morning, I am in the middle of my now fourth week on the job. Although brief, I have been thoroughly impressed with the professionals who occupy our ranks and I want to thank Mr. Thompson for noting those.    Officers and employees who have sworn an oath to serve their Nation in a mission--a critically important mission--that encounters more than 2 million travelers a day in the aviation sector alone. I have also had some time to become more familiar with the challenges facing the agency and develop a set of priorities.    My highest priority is to ensure solutions to the recent covert testing failures. Overall, there are several critical elements that are essential to improving screening operations. First, we must ensure the appropriate measures of effectiveness are in place to drive an institutional focus on our primary mission. What we measure is what our employees will pay attention to. So it is imperative that we get our metrics right.    Second, we must employ a culture of operational evolution, one that constantly reassesses our assumptions, our plans, and our processes and must be able to rapidly field new concepts of operation and new technologies.    Finally, delivering an effective system in earning the confidence of the traveling public will only come through competence, discipline, performance, and professionalism. I have conveyed these standards to our workforce and I commit to you that I relentlessly pursue these objectives.    I will take on this challenge with the leadership perspective that has been central to my approach my entire career. A well-defined and clear statement of mission, clear and unequivocal standards of performance, training and resourcing that enable the workforce to achieve success in an unwavering pursuit of accountability.    I will set expectations of strong values for the workforce and I will lead with TSA's core values of integrity, innovation, and team spirit at my core.    Since its creation after the attacks of September 11, 2001, TSA has played an invaluable role in protecting the traveling public. However, nearly 14 years later, we continue to face a range of threats from terrorists who are inspired by messages of hatred and violence. A number of terrorist groups remain intent on striking the United States and the West, and we know that some of them are specifically focused on aviation.    More troubling, today the threat is more decentralized, it is more diffuse and more complex than ever before. These persistent threats are TSA's most pressing challenge. Our enemies will continually adapt and so must we. We must leverage intelligence, technology, the experience of our front-line operators and our partners in Federal, State, and local governments in the private sector, to employ effective measures. We must pay particular attention to the insider threat.    A second challenge facing TSA is retention, training, and accountability. Front-line managers and screeners are critical to our success. Agency culture, morale, and effectiveness are a direct result of career-long development recognition and accountability.    The traveling public expects to be treated with dignity and respect. I will pay close attention to training and workforce development to include how to leverage and expand the TSA academy to develop leaders, improve individual performance, and instill a greater sense of pride in our agency, its mission, and its values.    A third organizational challenge for TSA is to ensure it is continually fielding the tools and equipment the workforce needs today, while envisioning how to modernize our system and transform the traveling experience in the future. I see a future where advanced capabilities can transform the experience, while preserving risk-based security as a central feature.    I think it is possible that an individual's biometric identity could effectively become the boarding pass of the future, linked to intelligence systems and requiring passage through an integrated capability designed to detect metallic- and non-metallic-based threats. This future can be realized with a suitable strategic approach.    As such, I commit myself to ensuring that TSA remains a high-performing, highly-capable counterterrorism organization, guided by a risk-based strategy, employing a multi-layered, intelligence-driven operation, and that we recruit and retain a highly-trained workforce, one that has the opportunity for career growth and development, while placing a premium on professional values and accountability; that we pursue advanced capabilities with innovation and competition central to our way of thinking, and that TSA continues to strengthen its integration in the intelligence community, in the private sector with our stakeholders, and among DHS and other Federal, State, and local partners.    I will follow this strategy, develop and lead the workforce, adapt and invest appropriately, and remain focused on these critical success factors.    Then finally, throughout my years of service, I know and I remain aware of the need to balance desires for greater security, with protection of the liberties and the rights that we cherish. Safeguarding civil liberties and privacy interests is a top priority, and I look forward to partnering with this committee to enhance the safety of the traveling public, and to achieve this balance.    I applaud the work that the men and women of TSA perform each and every day. It is a great honor to join them, and to have the privilege of serving with them in the defense of our country. Chairman McCaul, Ranking Member Thompson, and Members of the committee, I thank you for the opportunity to be here today, and I look forward to your questions.</t>
   </si>
   <si>
@@ -124,6 +142,12 @@
     <t>400341</t>
   </si>
   <si>
+    <t>Rogers</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rogers. Thank you, Mr. Chairman.    Admiral, welcome. You have got a big challenge on your hands. I have been on this committee since it was established, I have seen the Department grow and develop since it was established, and I can just assure you you have some inertia to deal with. You have some employees that you are gonna have to put the fear of God in their heart or nothing is going to change.    I have seen some good administrators precede you that ran into administrative pressures to back off; you are gonna run into that. But I want you to understand that you have got some folks that really believe they don't have to change, you will be gone before they are, and you need to make them understand that is not the case.    If they don't change what they are doing--now, it can't be slight changes, it is gonna be dramatic changes, or we are gonna have the results we have been getting for the last several years.    This most recent I.G. report that upset so many people was identical to the previous three I.G. reports over roughly a 5-year period of time. That is unacceptable, and that is people who are unwilling to do anything different and don't believe there are consequences for not doing anything different.    So, I hope that you will instill that understanding in them, that if they don't change, they are gone, and if you can't do that, you ought to be gone, and I think you would agree with that.    One concern I have got, I heard the Chairman make reference to the PreCheck program. Very good program as far as its goals. The problem we are running into, and I think when you move around airports you will see this, is that frequent travelers who are the people we want into this program, have gotten in to it. The FSDs at the airports have not adjusted the lane activity to accommodate that traffic, so now you spend more time in the PreCheck line than you do if you go into the priority lane--sky priority, whatever they call it, and just go through the typical take-your-shoes-off type.    That is silly, people are gonna stop going into the PreCheck program if they don't it find it enhances their ability to get through in a faster fashion. So, I hope you will address that issue with these airport folks, because we want the PreCheck program to continue and to be the method of getting safe people that we know through in an efficient manner so we can put more attention on those infrequent travelers who are more apt to have a problem.    I did hear you make reference to the fact that you understand the explosive detection canines are a valuable asset. They are the best asset you have, and I am not gonna talk in a open setting about the efficacy of the equipment or the personnel, but I would like to, soon as we are back from our August district work period, to meet with you in the SCIF and go over in detail what the shortcomings have been.    I used to chair the Transportation Security Subcommittee, I am very familiar with this subject matter and what I think needs to be done to remedy that. So, I look forward to that and I hope I can get your commitment to meet with me in September for that purpose.</t>
   </si>
   <si>
@@ -139,6 +163,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. First, let me offer my appreciation to my Chairman and Ranking Member for your presence here today, Vice Admiral, and let me thank you for your service. It is interesting that I followed my good friend Mr. Rogers, because as he chaired, I think we have switched back and forth. I had the privilege of chairing the Transportation Security Committee, and service--and I think I have served as his Ranking when he was Chair, and we are, if you will, young but we have been here for a little bit.    So we are really grateful for you service, and again, that of my Chair and Ranking Member of the full committee.    Let me, as I thank you for service, let me take a different twist and say to you that I am very proud of the men and women who serve every day on the front lines in many ways, but in particular today of transportation security officers.    Over the years, I have argued for increased professional development training, to recognize that morale and commitment have a lot to do with pay, respect, and professional development training, and I am gonna be posing questions within the short period of time that I have.    Let me also acknowledge to my colleagues, again, my sympathy to the Hernandez family for Mr. Gerardo Hernandez killed in the line of duty as a Transportation Security Officer in Los Angeles. Some of us went out to Los Angeles to acknowledge that as well as meeting with his family.    We should never dismiss the fact, in all of the issues that you will have to deal with, is that since 9/11, there are probably millions of TSA screenings, TSO screenings, and any number of stops that the TSO Officers made--and I hope you acknowledge that, because beginning to correct starts with acknowledging service, and I think it is very important to do so.    Let me also say, however, that in addition to that, we have allegations of mismanagement, wasteful procedures, retaliation against whistle blowers, low morale, security gaps. We have a number of things that you will have to address, but I never want to leave this table without saying thank you to the TSO Officers.    I make it my business, as I travel in airports across America, to say hello, to ask a question, or to watch their procedures, and again if I might, professional development training is crucial.    So let me just ask you a series of questions that I hope I will be able to get in. One, I think you can do better if we all get rid of sequestration. I want to get that on the record because you need the money placed in the right places.    I agree with the use of privatization on the basis of--let me correct that for being misquoted. I believe there is a place for the private sector in particular dealing with technology. I might have misheard you when you said something about a third TSA and it was the private sector. So I hope that is not right.    I am against privatizing airports and privatizing TSO Officers. I think we need a professional, trained group. I want your comments as it relates to professional, trained groups.    But on the BDO, there is $700 million being spent on that. I would be interested in you being able to craft an effective utilization of these individuals or this project with a more effective use of the resources that you are given on that, also     I want to take note of the fact that a young man in Dallas was so in love with his girlfriend just recently ran past security. I would like your comment on that. We shut down the Newark Airport a couple of years ago with another enamored young man who went through security.    Then I would like to have your comment that TSOs are the most visible face of security in America. How do we make people run toward, meaning the good people, and say I am so happy, as most people do, about these issues?    If I might yield to you for these answers. Again, I hope I can join Mr. Rogers and others for that SCIF briefing. I would be happy to do so.    If you could just comment on those, I would greatly appreciate it.</t>
   </si>
   <si>
@@ -172,6 +202,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.    I want to first of all echo the sentiments of Mr. Thompson that you are indeed a breath of fresh air. We have spent a lot of time together in the last few days and since you have come on-board and I think you are exactly what TSA needs at this time.    I also echo the sentiments of Mr. Rogers that there are a lot of problems at TSA. But I also--I sound like a politician--but I also echo the sentiments of Ms. Jackson Lee and want to say thank you for the good work that the vast majority of your employees are doing day-in and day-out. You are often trying to find a needle in the haystack and I appreciate the efforts of everyone.    One of the areas I want to focus on a little bit today is the issue of access control. We have kind of touched on it, but I think it is a gaping hole in security at the airports Nation-wide.    Within the last year or 2, you have had a major drug trafficking ring operating out of the Oakland Airport. You had another one operating out of Dallas/Fort Worth Airport that has truly troubling implications based on the briefings I have received so far about it that aren't necessarily public.    Another one, of course, that is very troubling was an individual who smuggled as much as 160 guns, loaded, including assault rifles, on airlines because a worker at the Atlanta Airport carried the guns in bags through the access points and brought them up to New York City. At any point, instead of selling them, if he wanted to do something bad on an airplane we would have had an unbelievable tragedy on our hands.    I think these incidents point out that there really is a major problem with access controls at airports. I recently had a bill passed out of our committee, our subcommittee addressing the issue.    But I would like to hear your thoughts on the access control issue. Should there be minimum standards at all access points of these airports?    I will preface the question further by saying that it is clear from the Dallas case that the VIPR teams that are used to do the random screening at various points were being monitored by the bad guys at Dallas/Fort Worth and they were just simply avoiding them with a quick phone call to their colleagues.    So that is not going to work going forward. So with that overview and those set of prefaces, I would like to hear your thoughts on access controls.</t>
   </si>
   <si>
@@ -205,6 +241,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman.    Admiral, welcome. I in no way speak for all Members of this committee, but for myself, and I suspect that the committee Members would agree with this, we wish you success. We want to see you succeed and we want to do everything we can to help you. I want to touch very quickly on just two things.    First of all, understand that I represent the coast of Georgia, the entire coast of Georgia, and on the coast, we have two major ports. We have the Savannah port, which is the No. 2 container port on the Eastern Seaboard. We also have the Brunswick Port, which is the No. 2 roll-on roll-off port in the Nation.    Both of those ports are vitally important, and in both of those ports, we use the TWIC cards, the Transportation Workers' Identification Credentials, and I want to talk just briefly about that, very quickly. It--I would like to read to you some examples of situations that have occurred with the TWIC cards that I am very concerned about.    First of all, an individual used a TWIC card to gain access to the Norfolk naval station and killed a naval officer. An individual drove through a gate at a Coast Guard station and threatened to detonate a bomb, demonstrating that a terrorist could do the same, and the ineffectiveness of the TWIC program.    TWIC holders have committed crimes in secure port areas, demonstrating TWICs are provided to criminals and can be used to commit crimes on ports. The proposed rule making for TWIC describes multiple possible terrorist scenarios where the TWIC cards will not be effective.    DHS has failed twice to complete successful pilot programs with the TWIC cards. DHS has not completed a reliable analysis of the TWIC program's internal controls or effectiveness, and finally, GAO has demonstrated the TWIC program's weakness through its analysis invert--in covert testing multiple times.    My question is: What about the TWIC cards? Can it be fixed, and if it can, how are you gonna fix it?</t>
   </si>
   <si>
@@ -232,6 +274,12 @@
     <t>412617</t>
   </si>
   <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you, Mr. Chairman, and thank you again, Admiral, for being here with us today. I have no doubt that under your leadership and with your experience, and what it sounds like great support from this committee, you will be successful at addressing the major concerns that we have seen with the TSA, and their responsibility of securing our Nation and our ports.    Today I want to focus on my home airport, Ontario International Airport. As you may know, the airport is controlled by LAWA, the Los Angeles airport. They have oversight and management control of this airport.    Through my experience not only as a passenger but going on a security visit tour of the airport, I want to highlight for you today, the concerns that I have.    Under the agreement, or the arrangement that LAWA has with Ontario, they are--LAX is 56 miles away, and they are the ones controlling our airport. Ontario Airport's manager is only at the airport on a part-time basis. It is a shared position with the Van Nuys airport, which is another, you know, hour away, depending on traffic.    LAWA--we used to have a full-time assistant manager, but that position was deleted a year ago. The authority--the management authority could be very well undermined when that manager is not at Ontario Airport, and it is unclear who is in charge of the airport when that person is physically not present.    When it comes to technology, the Ontario International Airport seems to be lacking. The card reader technology that regulates access to the secure areas is inaccurate, meaning that employees have no limited accesses to where they can enter secure areas. Additionally, many dispatch center security monitors at Ontario Airport are non-functioning.    Ontario Airport gets old fire department equipment from LAX, so whatever is deemed inoperable or unwanted at LAX is shipped to Ontario Airport, and that is the equipment that our folks have to work with.    When it comes to security, the airport's perimeter, security appears to be lacking and needs to be reviewed.    For example, as a result of a grade separation on the north side of the airport, we have had residents able--that were able to walk and drive all the way through to the runway without being stopped.    I also have concerns about the training of Ontario Airport employees. It appears that the LAX employees do some training at the Ontario facility, but it is not clear if our employees at Ontario Airport are participating in that training. As you can see, I have many concerns about the security of Ontario International Airport.    This is a major problem, because the airport serves millions of residents in California, in the Inland Empire. It is a hub. It is an engine for our community in the Inland Empire.    My goal here, as I explained to you earlier, is not to pit or get into the politics of who owns the airport. My goal here today is to ensure that you fully understand the issues and concerns that our community has as it relates to security and who is managing and who is responsible for the Ontario Airport.    At this time, I want to invite you to participate in a meeting with me to discuss these concerns and to come up with solutions to these problems. Would you be willing to discuss these issues and visit with me at the airport and also will you be willing to work with me and other relevant Federal officials to begin to address the tremendous problems that I have seen--personally witnessed at this airport?</t>
   </si>
   <si>
@@ -247,6 +295,9 @@
     <t>412653</t>
   </si>
   <si>
+    <t>Ratcliffe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Admiral, first of all, I would like to thank you for your 34 years of dedicated service in the Coast Guard, and I certainly wish you the best of luck in your new role as the TSA administrator. You have got a very difficult job ahead of you.    As a number of our recent hearings in this committee have highlighted, there are some immediate and frankly glaring problems that you will need to address in this new role.    We need to only rewind the clock a few days to underscore some of the troubling gaps that exist right now at TSA. I am sure that you are obviously aware that 3 days ago, on Sunday, at the Dallas-Fort Worth Airport a 26-year-old man was able to bypass TSA Security without a boarding pass or any identification at all and get on a plane to Guatemala. According to the police report, it was only after the police were called and the individual left the plane that TSA's security became aware of the incident.    So I want to give you an opportunity to respond to what happened at DFW and give us any information that you can about your investigation into how a breach of that magnitude was possible.</t>
   </si>
   <si>
@@ -274,6 +325,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman.    Congratulations, Admiral. Thank you for your service with the Coast Guard and thank you for your comments here today. Certainly stressing accountability and doing the kind of work you did in review. It is a difficult assignment but I think you are right on target.    I just want to concentrate on one area which has been something I have brought up for the last several years that represents, I think, a tremendous security issue regarding our airports and that is the perimeter security issue.    Dating back from the time I was a district attorney in Massachusetts, there was a case of a 15-year-old--young 15-year-old boy stowing away on a commercial airline from Charlotte Douglas and tragically losing his life over Milton, Massachusetts, when the landing gear went down. The fact that he penetrated that security aroused the concern.    But we have followed that issue forward and just to put it in perspective, from 2001 to 2011, there were 1,388 perimeter security breaches in our 450 domestic airports. What is troubling, among other things, is that the joint vulnerability assessments as the risks seem to be getting greater, are going down.    Just to give you an idea, from 2004 to 2008, there were 60 of those assessments for our 450 airports. From 2011 to 2013, that was reduced to 30 assessments annually. In 2014, only 12 of those assessments were covered.    That is--that means 97 percent of our Nation's airports weren't reviewed for security risk despite the fact that we have had time and time again whether it is in Chicago or Philadelphia or Los Angeles or, again, in Charlotte Douglas, in New York, we have had these kind of breaches that have occurred. Scores of them have been people that have reached access to the runway and the airports and their refueling areas as well. If a 15- or 16-year-old can penetrate our security--in one instance not even go detected after they reviewed it--then we are vulnerable.    If they can do that and stow away themselves, someone with a different motivation could stow away an explosive on those airlines and not even risk their lives doing it.    I hesitate to keep saying this publicly because I don't want to give people ideas but nothing has been done in terms of progress.    That is why when I wrote you congratulating you on your assignment--I was very pleased to get a response--a timely response back just this month, I appreciate that--where you are identifying this as a priority.    I just want to ask you where you are going with that because it is important and I also--the Chairman and I, when we were working together in Homeland, we had a field hearing and one thing that was so obvious to us was the fact that there is a huge jurisdictional issue at these airports. If things go wrong, they end up pointing the fingers at each other.    They are run by municipal airport organizations, they are run by authorities, and this jurisdiction battle unresolved, even when the Federal Government comes in and said with these assessments, you have things you have to clean up. You have dangers that are here. They don't do it and no one seems to make them do it.    So when you are doing that review, the other thing I think we have to clear up is this jurisdictional issue and if people are going to be safe, they are going from one airport to another. They are in the network. So you are only as good as your weakest link. We are not even assessing more than 3 percent of those airports for safety.    So I want to just give you a minute that is left just to try and expand upon what you wrote me about going forward and dealing with this issue and to try and deal also with this jurisdictional problem that we have.</t>
   </si>
   <si>
@@ -287,6 +344,12 @@
   </si>
   <si>
     <t>412644</t>
+  </si>
+  <si>
+    <t>Watson Coleman</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
   </si>
   <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you very much, Mr. Chairman.    Congratulations to you, Admiral. You are very encouraging, and it seems that you have taken this assignment on with all high expectations, and with respect to those that get the job done, on behalf of all of us. So thank you.    I just have a couple of little questions. No. 1 has to do with the Federal Air Marshal Service. My understanding is that there hasn't been a class, a recruitment, for nearly 4 years. So I am wondering, do you have any plan to address the attrition that this might represent? Are they still as necessary? Or is there something that is replacing the need for them?</t>
@@ -653,7 +716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +724,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -683,1805 +746,2139 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
         <v>18</v>
       </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G23" t="s">
+        <v>42</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>41</v>
+      </c>
+      <c r="G25" t="s">
+        <v>42</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G27" t="s">
+        <v>49</v>
+      </c>
       <c r="H27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" t="s"/>
-      <c r="H28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s"/>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>40</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G29" t="s">
+        <v>49</v>
+      </c>
       <c r="H29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G31" t="s">
+        <v>49</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G33" t="s">
+        <v>49</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>48</v>
+      </c>
+      <c r="G35" t="s">
+        <v>49</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G37" t="s">
+        <v>62</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>24</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G41" t="s">
+        <v>62</v>
+      </c>
       <c r="H41" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>51</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="G43" t="s">
+        <v>62</v>
+      </c>
       <c r="H43" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I43" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>11</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G44" t="s">
+        <v>13</v>
+      </c>
       <c r="H44" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>62</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>75</v>
+      </c>
       <c r="H47" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>18</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G48" t="s">
+        <v>24</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>62</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G49" t="s">
+        <v>75</v>
+      </c>
       <c r="H49" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>18</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>62</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G51" t="s">
+        <v>75</v>
+      </c>
       <c r="H51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>62</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="G53" t="s">
+        <v>75</v>
+      </c>
       <c r="H53" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>76</v>
+      </c>
+      <c r="I53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G54" t="s">
+        <v>13</v>
+      </c>
       <c r="H54" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>71</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G55" t="s">
+        <v>86</v>
+      </c>
       <c r="H55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>18</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>71</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>85</v>
+      </c>
+      <c r="G57" t="s">
+        <v>86</v>
+      </c>
       <c r="H57" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>87</v>
+      </c>
+      <c r="I57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G59" t="s">
+        <v>93</v>
+      </c>
       <c r="H59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I59" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>18</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G60" t="s">
+        <v>24</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G61" t="s">
+        <v>93</v>
+      </c>
       <c r="H61" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>76</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
       <c r="H63" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I63" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>18</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>85</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G67" t="s">
+        <v>103</v>
+      </c>
       <c r="H67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>85</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>102</v>
+      </c>
+      <c r="G69" t="s">
+        <v>103</v>
+      </c>
       <c r="H69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>104</v>
+      </c>
+      <c r="I69" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G71" t="s">
+        <v>110</v>
+      </c>
       <c r="H71" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I71" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G73" t="s">
+        <v>110</v>
+      </c>
       <c r="H73" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G75" t="s">
+        <v>110</v>
+      </c>
       <c r="H75" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>96</v>
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg97919.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg97919.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="122">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>400654</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>McCaul</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Thompson</t>
   </si>
   <si>
@@ -140,6 +149,9 @@
   </si>
   <si>
     <t>400341</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Rogers</t>
@@ -716,7 +728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I76"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -724,7 +736,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,2136 +761,2320 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>13</v>
-      </c>
       <c r="H12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
-      </c>
-      <c r="G16" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" t="s">
-        <v>24</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H24" t="s"/>
-      <c r="I24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s"/>
+      <c r="H24" t="s">
+        <v>27</v>
+      </c>
+      <c r="I24" t="s"/>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>47</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>23</v>
-      </c>
-      <c r="G28" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" t="s"/>
-      <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s"/>
+      <c r="H28" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" t="s"/>
+      <c r="J28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G29" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G33" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>54</v>
+      </c>
+      <c r="J35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G37" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" t="s">
-        <v>24</v>
-      </c>
-      <c r="H38" t="s"/>
-      <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G38" t="s"/>
+      <c r="H38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I38" t="s"/>
+      <c r="J38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G39" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>27</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I43" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I44" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J44" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>23</v>
-      </c>
-      <c r="G45" t="s">
-        <v>24</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>27</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I46" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I47" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>24</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>27</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I49" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>23</v>
-      </c>
-      <c r="G50" t="s">
-        <v>24</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>27</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I51" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>27</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I53" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I54" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I55" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J55" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>27</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G57" t="s">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>91</v>
+      </c>
+      <c r="J57" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G59" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I59" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J59" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>23</v>
-      </c>
-      <c r="G60" t="s">
-        <v>24</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>27</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G61" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I61" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G63" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="I63" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>67</v>
+      </c>
+      <c r="J63" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>23</v>
-      </c>
-      <c r="G65" t="s">
-        <v>24</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>27</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G67" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I67" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J67" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>108</v>
+      </c>
+      <c r="J69" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G71" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I71" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J71" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>27</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G73" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I73" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J73" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G75" t="s">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I75" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>115</v>
+      </c>
+      <c r="J75" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I76" t="s">
-        <v>117</v>
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
